--- a/SupersNew/characters/Beetle.xlsx
+++ b/SupersNew/characters/Beetle.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jom128/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rb\SupersNew\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{78AD074D-0B42-B24A-A65A-67231AF7AD6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="460" windowWidth="20020" windowHeight="14420" xr2:uid="{C5BDF303-2A10-428A-B5FA-9C2DEF49E8B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Fighting Profiles" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -374,13 +373,22 @@
   </si>
   <si>
     <t>Tough – You start the game with +4 Hit Points.</t>
+  </si>
+  <si>
+    <t>Clinging</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Cling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +423,20 @@
       <name val="Century Gothic"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -430,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -466,87 +488,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,47 +508,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,72 +937,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AFC3A5-DB28-4F5E-8A77-AD87DC2FBB2F}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1075,7 +1013,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1027,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1157,11 +1095,11 @@
         <v>14</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1121,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1143,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1227,7 +1165,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1182,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1261,7 +1199,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1271,7 +1209,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
@@ -1283,16 +1221,16 @@
       <c r="D15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="9" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
@@ -1303,10 +1241,10 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
@@ -1318,20 +1256,20 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1281,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1372,195 +1310,225 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="16">
         <v>30</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="16">
         <v>0</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <v>20</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="16">
         <v>20</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="16">
         <v>10</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="16">
         <v>4</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="19">
         <v>20</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="19">
         <v>0</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="23" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="16">
         <v>20</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="16">
         <v>3</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="16">
         <v>20</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="16">
         <v>1</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="18" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="22">
+        <v>20</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -1569,11 +1537,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1584,7 +1547,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6F6D3B2-7E06-412F-84AC-15F1D0EF35D1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Fighting Profiles'!$A$2:$A$34</xm:f>
           </x14:formula1>
@@ -1597,23 +1560,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4CCAA4-8C1E-4D1B-BBAE-A9818AB55217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1692,7 +1655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1720,7 +1683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +1708,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1770,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1798,7 +1761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1854,7 +1817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1882,7 +1845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1938,7 +1901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1966,7 +1929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1991,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2016,7 +1979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2041,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2066,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2091,7 +2054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2116,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2141,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2166,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2191,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2216,7 +2179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2241,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2266,7 +2229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2291,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2316,7 +2279,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2341,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2391,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2441,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2466,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2492,7 +2455,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
+  <sortState ref="A2:F34">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SupersNew/characters/Beetle.xlsx
+++ b/SupersNew/characters/Beetle.xlsx
@@ -372,9 +372,6 @@
     <t>Day Job: Jock</t>
   </si>
   <si>
-    <t>Tough – You start the game with +4 Hit Points.</t>
-  </si>
-  <si>
     <t>Clinging</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>Cling</t>
+  </si>
+  <si>
+    <t>Tough – You start the game with +6 Hit Points.</t>
   </si>
 </sst>
 </file>
@@ -509,6 +509,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,22 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,13 +957,13 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
@@ -974,13 +974,13 @@
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
@@ -991,13 +991,13 @@
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -1214,17 +1214,17 @@
         <v>74</v>
       </c>
       <c r="B15" s="4">
-        <f>_xlfn.CEILING.MATH(8+B10+B7*(0.5)+B12*(0.5) + 4)</f>
-        <v>41</v>
+        <f>_xlfn.CEILING.MATH(8+B10+B7*(0.5)+B12*(0.5) + 6)</f>
+        <v>43</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="9" t="s">
         <v>79</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -1256,7 +1256,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -1311,224 +1311,219 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="12">
         <v>30</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="12">
         <v>0</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="12">
         <v>20</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="12">
         <v>20</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="12">
         <v>10</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="12">
         <v>4</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="22">
         <v>20</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="22">
         <v>0</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="18" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="12">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="12">
         <v>3</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="12">
         <v>20</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="12">
         <v>1</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="16">
+        <v>20</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="22">
-        <v>20</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="22">
-        <v>0</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -1537,6 +1532,11 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SupersNew/characters/Beetle.xlsx
+++ b/SupersNew/characters/Beetle.xlsx
@@ -1890,6 +1890,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="B2:F2"/>
@@ -1897,11 +1902,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
